--- a/data/trans_orig/P6706-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>36459</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25829</v>
+        <v>26142</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49519</v>
+        <v>51109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1211717605223529</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08584270746533368</v>
+        <v>0.0868830217783958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.164576965676893</v>
+        <v>0.169861411177967</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -764,19 +764,19 @@
         <v>21538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13546</v>
+        <v>13314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32613</v>
+        <v>32360</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1132358573611641</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07121837268473205</v>
+        <v>0.07000016179194621</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1714634466940985</v>
+        <v>0.1701314352380826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -785,19 +785,19 @@
         <v>57997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44441</v>
+        <v>43166</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75087</v>
+        <v>74336</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1180981216116742</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09049445700687433</v>
+        <v>0.08789940179360327</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1528981758476826</v>
+        <v>0.1513696424444288</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>36131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24654</v>
+        <v>24826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49955</v>
+        <v>50670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1200807576178982</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08193948046393407</v>
+        <v>0.08250863096488176</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1660263880289649</v>
+        <v>0.1684016282022363</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -835,19 +835,19 @@
         <v>18108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11081</v>
+        <v>11298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27730</v>
+        <v>27655</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09520170436230338</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0582614048151503</v>
+        <v>0.05939962563444744</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1457895582547614</v>
+        <v>0.1453948770025278</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -856,19 +856,19 @@
         <v>54238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40480</v>
+        <v>41516</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70487</v>
+        <v>69726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1104449008547737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08242963227513903</v>
+        <v>0.08453926793751732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1435311234831675</v>
+        <v>0.1419822988208609</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>55605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42705</v>
+        <v>43082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70728</v>
+        <v>70413</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1848050494032448</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1419311051276261</v>
+        <v>0.1431825060692143</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2350673161526537</v>
+        <v>0.2340204706855233</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -906,19 +906,19 @@
         <v>42244</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30855</v>
+        <v>31867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55859</v>
+        <v>55080</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2220988885991216</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1622203451573374</v>
+        <v>0.1675414571108121</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2936788519631834</v>
+        <v>0.2895861082258356</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -927,19 +927,19 @@
         <v>97849</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79779</v>
+        <v>80206</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119095</v>
+        <v>117198</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1992492522813288</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1624540944417645</v>
+        <v>0.1633233911319848</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2425129730012583</v>
+        <v>0.2386501794481222</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>68379</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53307</v>
+        <v>54593</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84705</v>
+        <v>85012</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2272604088066093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1771653514515825</v>
+        <v>0.1814413734733227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2815185416694125</v>
+        <v>0.2825401343567598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -977,19 +977,19 @@
         <v>31556</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22379</v>
+        <v>21784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43516</v>
+        <v>42792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1659061310322062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1176569275833085</v>
+        <v>0.1145284866356211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2287876268434617</v>
+        <v>0.2249784514961208</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -998,19 +998,19 @@
         <v>99935</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82552</v>
+        <v>83693</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120308</v>
+        <v>119056</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2034974051920665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1681007301994283</v>
+        <v>0.1704232006991329</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2449815705366958</v>
+        <v>0.2424323920383626</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>104312</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87958</v>
+        <v>87893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122014</v>
+        <v>120692</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3466820236498948</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2923304065716923</v>
+        <v>0.292112687388767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4055151695198147</v>
+        <v>0.4011212021532497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -1048,19 +1048,19 @@
         <v>76758</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>63922</v>
+        <v>63524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92408</v>
+        <v>92708</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4035574186452048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3360708187598987</v>
+        <v>0.3339789798006667</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4858409067456169</v>
+        <v>0.487415227158969</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>163</v>
@@ -1069,19 +1069,19 @@
         <v>181070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>158248</v>
+        <v>158971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>202477</v>
+        <v>206642</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3687103200601568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3222387459156614</v>
+        <v>0.3237108668219382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4123020806719457</v>
+        <v>0.42078386082236</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>32784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21830</v>
+        <v>22277</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45349</v>
+        <v>45987</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1286931528963864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08569105286526976</v>
+        <v>0.08744569940976503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1780144086516984</v>
+        <v>0.1805206451796065</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1194,19 +1194,19 @@
         <v>18945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11897</v>
+        <v>11799</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28255</v>
+        <v>28249</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1141698783425208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07169886836958693</v>
+        <v>0.07110428950254009</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1702770067257438</v>
+        <v>0.1702442283342851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1215,19 +1215,19 @@
         <v>51729</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38718</v>
+        <v>37695</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66794</v>
+        <v>67321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1229645824009842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09203563847008757</v>
+        <v>0.08960334625238499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1587755315203637</v>
+        <v>0.1600282782498461</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>18361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11290</v>
+        <v>10613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28056</v>
+        <v>27905</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07207345361565248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04431661419318183</v>
+        <v>0.04165894829987083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1101304617359677</v>
+        <v>0.1095386791629776</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -1265,19 +1265,19 @@
         <v>18177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10908</v>
+        <v>11196</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27877</v>
+        <v>28264</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1095420511361701</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06573591348201721</v>
+        <v>0.06747270967360917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1680021970715022</v>
+        <v>0.1703353260091018</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -1286,19 +1286,19 @@
         <v>36537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24702</v>
+        <v>26108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49046</v>
+        <v>51077</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08685259322800717</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05871860007824389</v>
+        <v>0.06206028195746231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1165863499974592</v>
+        <v>0.1214152919794205</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>45516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33196</v>
+        <v>33034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59533</v>
+        <v>59491</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.178670841017963</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1303102273701231</v>
+        <v>0.1296752015430296</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2336921838537673</v>
+        <v>0.2335298896299717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -1336,19 +1336,19 @@
         <v>41392</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30551</v>
+        <v>29609</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54700</v>
+        <v>52716</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2494475509855678</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1841164723771149</v>
+        <v>0.1784378456752546</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3296511180521814</v>
+        <v>0.3176908433869452</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -1357,19 +1357,19 @@
         <v>86908</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71275</v>
+        <v>70372</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105354</v>
+        <v>105595</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2065880556225816</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1694268504725915</v>
+        <v>0.1672793143594721</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.250436320845098</v>
+        <v>0.2510085162228315</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>78607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63783</v>
+        <v>63626</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94885</v>
+        <v>96463</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3085661450396052</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2503779252586433</v>
+        <v>0.2497601645066649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3724642687857696</v>
+        <v>0.3786585906829683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1407,19 +1407,19 @@
         <v>34106</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24013</v>
+        <v>24176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45845</v>
+        <v>47515</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2055421942209651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1447170500236802</v>
+        <v>0.1456985697066303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2762851246924682</v>
+        <v>0.286350126470591</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1428,19 +1428,19 @@
         <v>112713</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93913</v>
+        <v>94272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132356</v>
+        <v>133728</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2679293063714037</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.223239189904999</v>
+        <v>0.2240931521725308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3146228748772397</v>
+        <v>0.3178827998060013</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>79480</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63710</v>
+        <v>64461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95736</v>
+        <v>96117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3119964074303929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2500888411213583</v>
+        <v>0.2530399282234563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3758076888435196</v>
+        <v>0.3773009635444322</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -1478,19 +1478,19 @@
         <v>53314</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41116</v>
+        <v>41368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66937</v>
+        <v>66995</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3212983253147762</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2477861620562636</v>
+        <v>0.2493028313868457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4033956259835006</v>
+        <v>0.4037447423051975</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>121</v>
@@ -1499,19 +1499,19 @@
         <v>132795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112814</v>
+        <v>113996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154747</v>
+        <v>154593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3156654623770233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2681691920508747</v>
+        <v>0.2709787620665593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3678459429523261</v>
+        <v>0.3674821265397085</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>62633</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49779</v>
+        <v>48467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78366</v>
+        <v>77215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2272466947001256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1806095660871204</v>
+        <v>0.1758512647609313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2843301280784513</v>
+        <v>0.2801539663006594</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1624,19 +1624,19 @@
         <v>19759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12640</v>
+        <v>12642</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28400</v>
+        <v>29556</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1817620480914443</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.116274858246428</v>
+        <v>0.1162914077175163</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2612584082589098</v>
+        <v>0.2718869967561891</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -1645,19 +1645,19 @@
         <v>82391</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66836</v>
+        <v>65196</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98223</v>
+        <v>99358</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2143812907853118</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1739062701440903</v>
+        <v>0.169638288990156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2555749135155562</v>
+        <v>0.2585295652978595</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>36581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25087</v>
+        <v>25675</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48493</v>
+        <v>49000</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1327248599505816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09102166901095497</v>
+        <v>0.09315556877510602</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1759454509165114</v>
+        <v>0.177784435693676</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1695,19 +1695,19 @@
         <v>14443</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8177</v>
+        <v>8348</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23935</v>
+        <v>22719</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1328625018114231</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07522016696066991</v>
+        <v>0.07679098234158706</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2201785035447269</v>
+        <v>0.2089924671937652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1716,19 +1716,19 @@
         <v>51024</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38695</v>
+        <v>39543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66306</v>
+        <v>64483</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1327637921676558</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1006842273199033</v>
+        <v>0.1028904704707242</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1725289424982464</v>
+        <v>0.1677846137729504</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>64868</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51889</v>
+        <v>52100</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79978</v>
+        <v>80778</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2353564046518099</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1882655644533824</v>
+        <v>0.1890312146693996</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2901791764203633</v>
+        <v>0.2930828404559363</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -1766,19 +1766,19 @@
         <v>22171</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14175</v>
+        <v>14276</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32320</v>
+        <v>32105</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2039573173345866</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1303958384190916</v>
+        <v>0.1313300717878582</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2973118688238446</v>
+        <v>0.295340429655881</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>83</v>
@@ -1787,19 +1787,19 @@
         <v>87039</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>70531</v>
+        <v>70275</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>103513</v>
+        <v>105388</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2264751233621476</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1835200379027037</v>
+        <v>0.1828551711689276</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2693391191861426</v>
+        <v>0.2742176486747486</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>45011</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33473</v>
+        <v>34484</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59334</v>
+        <v>58791</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1633112518081274</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1214491208739661</v>
+        <v>0.1251161007601417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2152782712160975</v>
+        <v>0.2133082113513611</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1837,19 +1837,19 @@
         <v>19507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13046</v>
+        <v>12425</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28662</v>
+        <v>28743</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1794479137827612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1200145391187616</v>
+        <v>0.1142993480303898</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2636685678484197</v>
+        <v>0.2644067750555321</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1858,19 +1858,19 @@
         <v>64518</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50767</v>
+        <v>50342</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79709</v>
+        <v>81147</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1678755320569456</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1320957756959786</v>
+        <v>0.1309883027114861</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2074010333165456</v>
+        <v>0.2111425946801065</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>66523</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54273</v>
+        <v>53270</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82294</v>
+        <v>82430</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2413607888893556</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1969174117190633</v>
+        <v>0.1932752978039468</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.298581488737775</v>
+        <v>0.2990764257129306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1908,19 +1908,19 @@
         <v>32826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23453</v>
+        <v>22846</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41890</v>
+        <v>41945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3019702189797848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2157436580381009</v>
+        <v>0.2101586526286328</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3853514652586311</v>
+        <v>0.3858557880057521</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>96</v>
@@ -1929,19 +1929,19 @@
         <v>99349</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>83772</v>
+        <v>82663</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117389</v>
+        <v>115409</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2585042616279392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2179736924597721</v>
+        <v>0.2150896694096429</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3054453522861587</v>
+        <v>0.3002943017613234</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>85946</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70064</v>
+        <v>69695</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103726</v>
+        <v>104002</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2032529344687999</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1656936496094776</v>
+        <v>0.1648200446222836</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2453001592565254</v>
+        <v>0.2459531301899997</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2054,19 +2054,19 @@
         <v>46408</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34822</v>
+        <v>35995</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60738</v>
+        <v>61370</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1558852089404741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1169687554703469</v>
+        <v>0.120909027858591</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2040199132151685</v>
+        <v>0.2061433022140899</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -2075,19 +2075,19 @@
         <v>132354</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112393</v>
+        <v>112356</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>154735</v>
+        <v>153529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1836824578010415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1559805211895919</v>
+        <v>0.1559285040714934</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2147429517588501</v>
+        <v>0.213069283266174</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>50202</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>37832</v>
+        <v>36870</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>66196</v>
+        <v>65640</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1187221970806489</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08946767445608522</v>
+        <v>0.08719288402761327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1565456533542241</v>
+        <v>0.1552311494153959</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2125,19 +2125,19 @@
         <v>32196</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22320</v>
+        <v>23092</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>44378</v>
+        <v>44672</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1081467502462391</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07497187044960435</v>
+        <v>0.07756772164411127</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1490674703189683</v>
+        <v>0.1500532084052149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>77</v>
@@ -2146,19 +2146,19 @@
         <v>82398</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66401</v>
+        <v>65433</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>103416</v>
+        <v>100238</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1143528393963714</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09215192406480799</v>
+        <v>0.09080854378401929</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1435212108485585</v>
+        <v>0.1391115215646683</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>78373</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63650</v>
+        <v>63252</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95999</v>
+        <v>96113</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1853428263490045</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1505257168559052</v>
+        <v>0.149585017895167</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.227027336041417</v>
+        <v>0.2272966830195242</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -2196,19 +2196,19 @@
         <v>60347</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47894</v>
+        <v>47360</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77743</v>
+        <v>74366</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2027050396276181</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.160877300653931</v>
+        <v>0.1590810384970049</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2611378327252139</v>
+        <v>0.2497968661635709</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>135</v>
@@ -2217,19 +2217,19 @@
         <v>138719</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>117751</v>
+        <v>118578</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>164349</v>
+        <v>160225</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1925162083528873</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1634165309611383</v>
+        <v>0.1645633480245414</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2280852425722389</v>
+        <v>0.2223622107163541</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>79794</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64540</v>
+        <v>62899</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98004</v>
+        <v>96235</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1887029965060864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1526303151061461</v>
+        <v>0.1487480900876298</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2317683735582783</v>
+        <v>0.2275861044564586</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -2267,19 +2267,19 @@
         <v>61957</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48899</v>
+        <v>48579</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79945</v>
+        <v>77939</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2081139135836999</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.164250846270246</v>
+        <v>0.1631773494489479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2685356193846776</v>
+        <v>0.2617978596061604</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>132</v>
@@ -2288,19 +2288,19 @@
         <v>141750</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>120588</v>
+        <v>119539</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>165410</v>
+        <v>163702</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1967228221474941</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1673529906356459</v>
+        <v>0.1658970567690266</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2295572585611151</v>
+        <v>0.2271871602449937</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>128538</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>109157</v>
+        <v>110517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149120</v>
+        <v>150540</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3039790455954604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2581437641382464</v>
+        <v>0.2613601424614269</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3526515341012776</v>
+        <v>0.3560098737638348</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -2338,19 +2338,19 @@
         <v>96799</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77383</v>
+        <v>82297</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>112881</v>
+        <v>113723</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3251490876019688</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2599290292777297</v>
+        <v>0.2764358794239072</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3791683865976355</v>
+        <v>0.3819963976054105</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>207</v>
@@ -2359,19 +2359,19 @@
         <v>225337</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>200138</v>
+        <v>198861</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>252130</v>
+        <v>250642</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3127256723022057</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2777531657593482</v>
+        <v>0.2759810778265004</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3499083453813257</v>
+        <v>0.3478437712245454</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>38640</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27935</v>
+        <v>28306</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50280</v>
+        <v>49562</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2578959868315138</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1864487885437128</v>
+        <v>0.188920414450483</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3355814960513965</v>
+        <v>0.3307951718539557</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -2484,19 +2484,19 @@
         <v>46051</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35114</v>
+        <v>35564</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60087</v>
+        <v>59404</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2650042016162641</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2020680554623328</v>
+        <v>0.2046574496015642</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3457755415665874</v>
+        <v>0.3418466445903834</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>78</v>
@@ -2505,19 +2505,19 @@
         <v>84691</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>69287</v>
+        <v>68776</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103087</v>
+        <v>101073</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2617131068076903</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2141116013576113</v>
+        <v>0.2125312761862629</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3185603457446476</v>
+        <v>0.3123369283772032</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>19412</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11943</v>
+        <v>12471</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28389</v>
+        <v>29122</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1295643050198822</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07971210992999857</v>
+        <v>0.08323529584585727</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1894792870128417</v>
+        <v>0.1943721806480405</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -2555,19 +2555,19 @@
         <v>28929</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19212</v>
+        <v>19955</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40545</v>
+        <v>40731</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1664721837931283</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1105553627577082</v>
+        <v>0.114831417180002</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2333204404782957</v>
+        <v>0.2343901698938582</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -2576,19 +2576,19 @@
         <v>48341</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36275</v>
+        <v>36954</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63666</v>
+        <v>64364</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1493838807656658</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1120986817755731</v>
+        <v>0.1141944806431267</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1967407785882387</v>
+        <v>0.1988989308355836</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>34408</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24015</v>
+        <v>25324</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45431</v>
+        <v>46790</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2296488820762893</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1602810866821967</v>
+        <v>0.1690198294236019</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3032192392479357</v>
+        <v>0.3122936231540669</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -2626,19 +2626,19 @@
         <v>28179</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19086</v>
+        <v>18689</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39825</v>
+        <v>39264</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1621583867694127</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1098303615371583</v>
+        <v>0.1075455250138264</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2291782212926121</v>
+        <v>0.2259478558765101</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -2647,19 +2647,19 @@
         <v>62587</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>49001</v>
+        <v>48986</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>77128</v>
+        <v>79322</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1934064040928426</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1514226885250409</v>
+        <v>0.1513775334368433</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2383417096700755</v>
+        <v>0.2451225870681646</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>28096</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18956</v>
+        <v>19375</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39669</v>
+        <v>39259</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1875247310905322</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1265204505607166</v>
+        <v>0.1293128499305355</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2647661336812692</v>
+        <v>0.2620285375817759</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>29</v>
@@ -2697,19 +2697,19 @@
         <v>30518</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22188</v>
+        <v>21494</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>41999</v>
+        <v>41725</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1756190326527219</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1276836226082177</v>
+        <v>0.1236875395791976</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2416842026717333</v>
+        <v>0.2401112469436279</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>54</v>
@@ -2718,19 +2718,19 @@
         <v>58614</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>45469</v>
+        <v>44945</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75725</v>
+        <v>74231</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1811313565635277</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1405090102504653</v>
+        <v>0.1388893877225201</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2340078534747901</v>
+        <v>0.2293899170002656</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>29271</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20323</v>
+        <v>19848</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>40750</v>
+        <v>39859</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1953660949817825</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.135645348037278</v>
+        <v>0.1324733947946901</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2719791394000989</v>
+        <v>0.2660318409183248</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -2768,19 +2768,19 @@
         <v>40098</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29572</v>
+        <v>29436</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52011</v>
+        <v>52104</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2307461951684729</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1701726697192979</v>
+        <v>0.169389156796835</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2993022391816239</v>
+        <v>0.2998358018996163</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>63</v>
@@ -2789,19 +2789,19 @@
         <v>69369</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>54789</v>
+        <v>55108</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>86676</v>
+        <v>85101</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2143652517702735</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1693088572092298</v>
+        <v>0.1702955554465579</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2678462067472562</v>
+        <v>0.2629819724807889</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>256462</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>226266</v>
+        <v>226413</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>288483</v>
+        <v>285437</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1826742982235272</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1611659178069386</v>
+        <v>0.1612708571650379</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2054827520413688</v>
+        <v>0.2033128077791468</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>140</v>
@@ -2914,19 +2914,19 @@
         <v>152700</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131275</v>
+        <v>131550</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>178124</v>
+        <v>177082</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1630847326185589</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1402024008248931</v>
+        <v>0.1404960959719152</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.190237975551278</v>
+        <v>0.189124243977544</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>383</v>
@@ -2935,19 +2935,19 @@
         <v>409162</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>371799</v>
+        <v>367875</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>449832</v>
+        <v>450266</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1748366080599253</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1588713714779353</v>
+        <v>0.1571946748030418</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1922151209990572</v>
+        <v>0.1924002741204243</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>160687</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>135442</v>
+        <v>137690</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>186612</v>
+        <v>186671</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1144548078584467</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09647319427847319</v>
+        <v>0.09807503722076667</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1329214626029331</v>
+        <v>0.1329634959496605</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>105</v>
@@ -2985,19 +2985,19 @@
         <v>111852</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>92261</v>
+        <v>93180</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>133691</v>
+        <v>133085</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1194586343393979</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09853530329562694</v>
+        <v>0.09951690439007294</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1427829118419433</v>
+        <v>0.1421355150078922</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -3006,19 +3006,19 @@
         <v>272539</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>242528</v>
+        <v>241368</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>308103</v>
+        <v>306399</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1164568145583898</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1036330553400105</v>
+        <v>0.1031375319658056</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1316537978122559</v>
+        <v>0.130925594353183</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>278770</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>250505</v>
+        <v>249252</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>313171</v>
+        <v>310406</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1985637834248853</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.178431338502697</v>
+        <v>0.1775385628911048</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2230671051567189</v>
+        <v>0.2210978872676871</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>179</v>
@@ -3056,19 +3056,19 @@
         <v>194333</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>169049</v>
+        <v>171241</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>224547</v>
+        <v>219994</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2075485363797808</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1805449671276238</v>
+        <v>0.1828864897772365</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2398174587200165</v>
+        <v>0.2349545663262821</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>447</v>
@@ -3077,19 +3077,19 @@
         <v>473102</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>434906</v>
+        <v>433906</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>510188</v>
+        <v>514804</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2021585394943674</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1858369474374981</v>
+        <v>0.185409777497585</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2180052835477455</v>
+        <v>0.2199778469245933</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>299887</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>269665</v>
+        <v>271606</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>332889</v>
+        <v>332479</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2136055324492827</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1920787393872313</v>
+        <v>0.1934613067061511</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2371120588999847</v>
+        <v>0.2368201686222956</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>165</v>
@@ -3127,19 +3127,19 @@
         <v>177644</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154166</v>
+        <v>153307</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>202933</v>
+        <v>201845</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1897252844238993</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1646499362652648</v>
+        <v>0.1637329767814114</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2167340705990429</v>
+        <v>0.2155722479910865</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>447</v>
@@ -3148,19 +3148,19 @@
         <v>477532</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>440960</v>
+        <v>437611</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>522789</v>
+        <v>517638</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2040511610646793</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1884239888195318</v>
+        <v>0.1869930393178585</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.223389724781709</v>
+        <v>0.2211888506666732</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>408125</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>374880</v>
+        <v>372472</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>446002</v>
+        <v>444088</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2907015780438581</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2670217198093948</v>
+        <v>0.2653064073221189</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3176808816084875</v>
+        <v>0.3163178545979031</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>275</v>
@@ -3198,19 +3198,19 @@
         <v>299795</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>268386</v>
+        <v>272133</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>329972</v>
+        <v>332297</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3201828122383631</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2866381756442651</v>
+        <v>0.2906393515718308</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3524118248820395</v>
+        <v>0.3548956914260733</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>650</v>
@@ -3219,19 +3219,19 @@
         <v>707920</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>661444</v>
+        <v>660619</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>754321</v>
+        <v>762008</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3024968768226382</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2826376541259176</v>
+        <v>0.2822852353748734</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3223244637740394</v>
+        <v>0.3256090965279333</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>45430</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33111</v>
+        <v>33488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59201</v>
+        <v>58071</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1645713314052842</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.119943400047909</v>
+        <v>0.1213097875909673</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2144551438270314</v>
+        <v>0.2103623853134602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3585,19 +3585,19 @@
         <v>19785</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12538</v>
+        <v>12254</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29865</v>
+        <v>29095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09237970460892175</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05854024071051783</v>
+        <v>0.05721532298913852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1394448241033879</v>
+        <v>0.1358460592584419</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -3606,19 +3606,19 @@
         <v>65216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51821</v>
+        <v>50762</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81732</v>
+        <v>82214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1330316632030149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1057077743888706</v>
+        <v>0.1035471016042621</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1667226835779149</v>
+        <v>0.1677059422528221</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>37975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27597</v>
+        <v>28262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50178</v>
+        <v>51018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1375638617757455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09997034485746131</v>
+        <v>0.1023798177401908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1817703016909742</v>
+        <v>0.1848139222061188</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3656,19 +3656,19 @@
         <v>24029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16098</v>
+        <v>15898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34958</v>
+        <v>34608</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1121915569088811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0751644514784565</v>
+        <v>0.0742283984278556</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1632212444950355</v>
+        <v>0.161589866219106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -3677,19 +3677,19 @@
         <v>62003</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48290</v>
+        <v>48099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77814</v>
+        <v>77827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1264790017644173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09850510197910384</v>
+        <v>0.0981164222532831</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1587303768984607</v>
+        <v>0.1587568123714558</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>63001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48947</v>
+        <v>49135</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79521</v>
+        <v>77961</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2282194060488897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.177309845433836</v>
+        <v>0.1779901918840761</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2880650627310998</v>
+        <v>0.282413363000909</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -3727,19 +3727,19 @@
         <v>53654</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41227</v>
+        <v>41026</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66130</v>
+        <v>66423</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.250518062911725</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1924949875461502</v>
+        <v>0.191553293355775</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.308768526839052</v>
+        <v>0.3101356567159714</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>107</v>
@@ -3748,19 +3748,19 @@
         <v>116655</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98309</v>
+        <v>98290</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137334</v>
+        <v>137633</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2379614255879966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2005367354382202</v>
+        <v>0.200498210586917</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2801432368703716</v>
+        <v>0.2807531706525137</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>48092</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35243</v>
+        <v>36215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63482</v>
+        <v>63195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1742141233219739</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1276669819110431</v>
+        <v>0.1311890222635243</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2299626284492954</v>
+        <v>0.2289235210089387</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -3798,19 +3798,19 @@
         <v>44357</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32772</v>
+        <v>33678</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57469</v>
+        <v>57845</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2071093880418345</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1530151424382752</v>
+        <v>0.1572452860198349</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2683269580953626</v>
+        <v>0.2700821050019886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3819,19 +3819,19 @@
         <v>92450</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75423</v>
+        <v>74102</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111788</v>
+        <v>110025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1885856755466773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.153852343685167</v>
+        <v>0.1511583044028621</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2280335774445688</v>
+        <v>0.2244371796775644</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>81555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67023</v>
+        <v>66665</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97761</v>
+        <v>96982</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2954312774481068</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2427893691666632</v>
+        <v>0.2414928028899453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3541396168681581</v>
+        <v>0.3513170344879865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -3869,19 +3869,19 @@
         <v>72348</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60657</v>
+        <v>58656</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86976</v>
+        <v>85424</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3378012875286377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2832152556915015</v>
+        <v>0.2738685611210673</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4061020060342633</v>
+        <v>0.398854889231142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -3890,19 +3890,19 @@
         <v>153903</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>132845</v>
+        <v>134897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>175021</v>
+        <v>176831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3139422338978939</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.270985779460711</v>
+        <v>0.2751735044338912</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3570211737033559</v>
+        <v>0.3607128310422784</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>39107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28732</v>
+        <v>29087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52291</v>
+        <v>52364</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1607790022277804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1181230078504986</v>
+        <v>0.1195845840311347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2149775918270046</v>
+        <v>0.21527835936591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -4015,19 +4015,19 @@
         <v>34893</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25592</v>
+        <v>25230</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47502</v>
+        <v>45798</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1844460272883691</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.135284014718271</v>
+        <v>0.1333678990265669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2510968913330907</v>
+        <v>0.2420943281050318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -4036,19 +4036,19 @@
         <v>74000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58307</v>
+        <v>59723</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91921</v>
+        <v>92658</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1711330750254221</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1348402237732889</v>
+        <v>0.1381158240531592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2125762709990921</v>
+        <v>0.2142818146376347</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>33011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22872</v>
+        <v>22563</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47673</v>
+        <v>45223</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1357170846646552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09403331372876651</v>
+        <v>0.0927606088608012</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1959954624460231</v>
+        <v>0.1859226932283899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -4086,19 +4086,19 @@
         <v>33068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23783</v>
+        <v>23695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45275</v>
+        <v>44084</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.174800632697235</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1257178123361812</v>
+        <v>0.1252538942844761</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2393294705364148</v>
+        <v>0.2330343091683852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -4107,19 +4107,19 @@
         <v>66080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52977</v>
+        <v>51094</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84453</v>
+        <v>83423</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1528157229803485</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1225136839224766</v>
+        <v>0.118160928060434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1953059245598745</v>
+        <v>0.1929237167510204</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>51583</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38463</v>
+        <v>38558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64625</v>
+        <v>65616</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2120701838525907</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1581278133457742</v>
+        <v>0.1585193784806838</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2656862876819989</v>
+        <v>0.2697612489051426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -4157,19 +4157,19 @@
         <v>43832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33147</v>
+        <v>33279</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55528</v>
+        <v>56183</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2316975274578684</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.175218030238087</v>
+        <v>0.1759138525263205</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.293525807851815</v>
+        <v>0.2969882526867809</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>90</v>
@@ -4178,19 +4178,19 @@
         <v>95415</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79678</v>
+        <v>79073</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116473</v>
+        <v>112609</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2206569387993198</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1842629519624534</v>
+        <v>0.1828645197074759</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2693569614924848</v>
+        <v>0.2604201762663334</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>54533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42265</v>
+        <v>41894</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69741</v>
+        <v>69812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2241954172212114</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1737621507975377</v>
+        <v>0.1722345722251535</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2867200622401215</v>
+        <v>0.2870116629569425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -4228,19 +4228,19 @@
         <v>31295</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21266</v>
+        <v>21629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42436</v>
+        <v>43409</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.165425680778205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1124141271847263</v>
+        <v>0.1143301504626412</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2243183469317922</v>
+        <v>0.2294646464003199</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -4249,19 +4249,19 @@
         <v>85827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70546</v>
+        <v>70812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104159</v>
+        <v>104483</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1984842799797838</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1631442178037041</v>
+        <v>0.1637603105236525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.240877687299692</v>
+        <v>0.2416277341673901</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>65002</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50320</v>
+        <v>50469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79068</v>
+        <v>79534</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2672383120337623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2068751458584663</v>
+        <v>0.2074872294032936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3250640662824248</v>
+        <v>0.3269797376184728</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -4299,19 +4299,19 @@
         <v>46089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35223</v>
+        <v>32990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59257</v>
+        <v>58125</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2436301317783224</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1861931437238543</v>
+        <v>0.17438854966499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3132400291751203</v>
+        <v>0.3072518293329305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -4320,19 +4320,19 @@
         <v>111091</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91358</v>
+        <v>95280</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130503</v>
+        <v>131453</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2569099832151258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2112743944000314</v>
+        <v>0.220345200823119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3018024188896221</v>
+        <v>0.3039983854102454</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>37001</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27392</v>
+        <v>26342</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50720</v>
+        <v>50921</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1710456196058529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1266237634763337</v>
+        <v>0.1217714084210054</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2344633839480049</v>
+        <v>0.2353910516796206</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4445,19 +4445,19 @@
         <v>9479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4656</v>
+        <v>4971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16499</v>
+        <v>16299</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1455635674794298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0715060251889445</v>
+        <v>0.07634018282802774</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2533648763733701</v>
+        <v>0.2502953895865587</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -4466,19 +4466,19 @@
         <v>46480</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33532</v>
+        <v>34465</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59914</v>
+        <v>60167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1651498017954647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1191438774947654</v>
+        <v>0.1224578287485053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2128818868160043</v>
+        <v>0.2137796730733459</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>43687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32659</v>
+        <v>32664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56682</v>
+        <v>57380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2019484790073046</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1509703560939799</v>
+        <v>0.1509962271212619</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.262021602467631</v>
+        <v>0.2652473343806533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4516,19 +4516,19 @@
         <v>6130</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2399</v>
+        <v>2491</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12391</v>
+        <v>12746</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09414227386790222</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0368405086983793</v>
+        <v>0.03825938635490781</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.190284789210823</v>
+        <v>0.1957342393564636</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -4537,19 +4537,19 @@
         <v>49817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38388</v>
+        <v>37730</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64298</v>
+        <v>63041</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1770052075165373</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1363975117524287</v>
+        <v>0.1340586732086455</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2284577295811046</v>
+        <v>0.223992121673404</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>48263</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36017</v>
+        <v>37423</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60974</v>
+        <v>60893</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2231049992621983</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1664948288662318</v>
+        <v>0.1729929808446599</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2818627266481668</v>
+        <v>0.2814874421028401</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -4587,19 +4587,19 @@
         <v>22920</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15861</v>
+        <v>15200</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31409</v>
+        <v>30863</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3519771385004105</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2435789533267205</v>
+        <v>0.2334230811343863</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4823389944455182</v>
+        <v>0.4739608562169735</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -4608,19 +4608,19 @@
         <v>71183</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57318</v>
+        <v>57311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87057</v>
+        <v>88080</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2529223251986608</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2036574986489227</v>
+        <v>0.2036338324645874</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3093253167556216</v>
+        <v>0.3129596909466902</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>56064</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43934</v>
+        <v>43506</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68880</v>
+        <v>70804</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2591647883182376</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2030906884476472</v>
+        <v>0.2011159662946721</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3184075712989026</v>
+        <v>0.3273027139291808</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -4658,19 +4658,19 @@
         <v>10402</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5468</v>
+        <v>5539</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17062</v>
+        <v>17208</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1597462760554052</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08397095895957563</v>
+        <v>0.08506529449425644</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2620176461647414</v>
+        <v>0.2642577478259883</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -4679,19 +4679,19 @@
         <v>66466</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54585</v>
+        <v>52137</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83784</v>
+        <v>80908</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2361621889838728</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1939457266426254</v>
+        <v>0.185248096428499</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2976936698028922</v>
+        <v>0.2874758782030564</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>31310</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22564</v>
+        <v>21400</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43441</v>
+        <v>43311</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1447361138064066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1043044069182829</v>
+        <v>0.09892595338869753</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.200811563209941</v>
+        <v>0.2002132394617347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -4729,19 +4729,19 @@
         <v>16186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9654</v>
+        <v>10011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23617</v>
+        <v>24755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2485707440968522</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1482585723061865</v>
+        <v>0.1537393672290375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3626765655814071</v>
+        <v>0.3801620510491414</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -4750,19 +4750,19 @@
         <v>47496</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35650</v>
+        <v>35199</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>62011</v>
+        <v>61057</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1687604765054644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1266688524391958</v>
+        <v>0.1250663552107611</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2203320846223903</v>
+        <v>0.2169442874062319</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>117331</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97695</v>
+        <v>99077</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137651</v>
+        <v>137712</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2405795359676671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2003167946460106</v>
+        <v>0.203150187361409</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2822451023375039</v>
+        <v>0.2823699405143037</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -4875,19 +4875,19 @@
         <v>39825</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28614</v>
+        <v>29290</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51653</v>
+        <v>53302</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1091265117608285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07840624272660518</v>
+        <v>0.08025937666089698</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1415368465915636</v>
+        <v>0.1460555096188437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>149</v>
@@ -4896,19 +4896,19 @@
         <v>157156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135069</v>
+        <v>134711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>182915</v>
+        <v>181451</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1843159939025078</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1584127089909533</v>
+        <v>0.1579922848057983</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.21452749018821</v>
+        <v>0.2128097949578235</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>76417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>60473</v>
+        <v>60466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>93940</v>
+        <v>94134</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1566880650487732</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1239961807582435</v>
+        <v>0.1239824314372336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1926171584136949</v>
+        <v>0.1930162168889346</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -4946,19 +4946,19 @@
         <v>46184</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34043</v>
+        <v>34507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>60308</v>
+        <v>60295</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1265522474970605</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09328317969594897</v>
+        <v>0.09455572130761614</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.165254058224376</v>
+        <v>0.1652170467072309</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>116</v>
@@ -4967,19 +4967,19 @@
         <v>122601</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>101573</v>
+        <v>103054</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>142910</v>
+        <v>142888</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.143789557397699</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1191273128735044</v>
+        <v>0.1208649113424888</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1676078949419541</v>
+        <v>0.1675824234846801</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>102785</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>85972</v>
+        <v>85849</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122851</v>
+        <v>121152</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2107546645465436</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1762804996669264</v>
+        <v>0.1760283365033585</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2518980893655779</v>
+        <v>0.2484137655209836</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -5017,19 +5017,19 @@
         <v>82431</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>68592</v>
+        <v>66409</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99110</v>
+        <v>99288</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2258746876331881</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1879532751317525</v>
+        <v>0.1819717297579345</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2715784194070616</v>
+        <v>0.2720638044608773</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>178</v>
@@ -5038,19 +5038,19 @@
         <v>185216</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>161630</v>
+        <v>162281</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>210072</v>
+        <v>211411</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2172262239503275</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1895638994250499</v>
+        <v>0.1903277866580937</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2463774798936724</v>
+        <v>0.2479486288075153</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>106710</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88686</v>
+        <v>90858</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126288</v>
+        <v>124809</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2188027632263423</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1818447946178875</v>
+        <v>0.1862995218907003</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2589460837014552</v>
+        <v>0.2559129333162991</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -5088,19 +5088,19 @@
         <v>71962</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58371</v>
+        <v>58045</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88854</v>
+        <v>88005</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1971881330490718</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1599463171558592</v>
+        <v>0.1590526457797669</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2434730681052762</v>
+        <v>0.2411489201370841</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -5109,19 +5109,19 @@
         <v>178672</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155612</v>
+        <v>154542</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202334</v>
+        <v>201035</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2095514305807868</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1825058091508462</v>
+        <v>0.1812502791025706</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2373023868312261</v>
+        <v>0.2357785880878273</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>84458</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69550</v>
+        <v>67653</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104451</v>
+        <v>101296</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1731749712106739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1426081655563378</v>
+        <v>0.1387189782400159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2141711757097085</v>
+        <v>0.2077005127696611</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>123</v>
@@ -5159,19 +5159,19 @@
         <v>124540</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>105009</v>
+        <v>107792</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140801</v>
+        <v>143935</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3412584200598511</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2877415320109802</v>
+        <v>0.2953684535887802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3858174370927646</v>
+        <v>0.3944039671824024</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>204</v>
@@ -5180,19 +5180,19 @@
         <v>208997</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>186695</v>
+        <v>184991</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>233537</v>
+        <v>232647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2451167941686789</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.21896071501744</v>
+        <v>0.216961697651564</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.273898468527679</v>
+        <v>0.272854134246537</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>62911</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>50661</v>
+        <v>48569</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>77766</v>
+        <v>75804</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3259261671746737</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2624598364314446</v>
+        <v>0.2516262816943068</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4028855209291968</v>
+        <v>0.3927231248645294</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -5305,19 +5305,19 @@
         <v>56205</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44505</v>
+        <v>43313</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68597</v>
+        <v>68915</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2844103481054274</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.225207157923095</v>
+        <v>0.2191761999978261</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3471178366264131</v>
+        <v>0.3487240968151007</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>112</v>
@@ -5326,19 +5326,19 @@
         <v>119115</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>100604</v>
+        <v>100834</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>137842</v>
+        <v>138615</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3049239662780422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2575362371084965</v>
+        <v>0.2581255014400323</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3528622447800761</v>
+        <v>0.3548409958872073</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>37602</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28160</v>
+        <v>26998</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51019</v>
+        <v>50712</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1948066416627079</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.145891456862171</v>
+        <v>0.1398724599062468</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2643181219180594</v>
+        <v>0.2627244641401159</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -5376,19 +5376,19 @@
         <v>43906</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33692</v>
+        <v>33264</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>57309</v>
+        <v>55304</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2221775184722186</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.170492090970579</v>
+        <v>0.168325489282154</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2899953675951751</v>
+        <v>0.2798514775934435</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -5397,19 +5397,19 @@
         <v>81508</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>67450</v>
+        <v>65969</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>98272</v>
+        <v>98298</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2086531384043831</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1726665399381584</v>
+        <v>0.1688741171158924</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2515654814700636</v>
+        <v>0.251632852799334</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>39431</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28928</v>
+        <v>28747</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52726</v>
+        <v>50615</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2042848250490185</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1498686780711356</v>
+        <v>0.1489304654008429</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2731605264668737</v>
+        <v>0.2622265523694847</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -5447,19 +5447,19 @@
         <v>41314</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30742</v>
+        <v>30427</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54531</v>
+        <v>52865</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2090566477887399</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1555637573163781</v>
+        <v>0.1539703505182322</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2759379144952226</v>
+        <v>0.2675093496240514</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>77</v>
@@ -5468,19 +5468,19 @@
         <v>80745</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65760</v>
+        <v>65643</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>96203</v>
+        <v>98832</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2066988152356407</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1683386692756473</v>
+        <v>0.1680403398093881</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2462699156556492</v>
+        <v>0.2529998727143655</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>32146</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21802</v>
+        <v>22741</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44281</v>
+        <v>44370</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1665430416916774</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1129502460951769</v>
+        <v>0.1178137332336293</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2294109214521291</v>
+        <v>0.2298696760704101</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>34</v>
@@ -5518,19 +5518,19 @@
         <v>35689</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>26434</v>
+        <v>25522</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47089</v>
+        <v>48455</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1805939768423979</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1337626980111819</v>
+        <v>0.1291484488752569</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2382820770508984</v>
+        <v>0.2451939009015446</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -5539,19 +5539,19 @@
         <v>67835</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>54094</v>
+        <v>53498</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83572</v>
+        <v>84575</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1736511891264843</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1384765190735317</v>
+        <v>0.1369503200176892</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2139362957856523</v>
+        <v>0.2165024821841158</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>20931</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12922</v>
+        <v>12559</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31491</v>
+        <v>30827</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1084393244219226</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06694766761404923</v>
+        <v>0.06506453993709521</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1631462490417817</v>
+        <v>0.1597058643982393</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -5589,19 +5589,19 @@
         <v>20505</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13426</v>
+        <v>13083</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31906</v>
+        <v>29383</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1037615087912162</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06793794340205678</v>
+        <v>0.06620528021101274</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1614540177187239</v>
+        <v>0.1486867428265928</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -5610,19 +5610,19 @@
         <v>41436</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>29551</v>
+        <v>30527</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>56107</v>
+        <v>55932</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1060728909554497</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07564868111148479</v>
+        <v>0.0781453465017983</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1436281863132662</v>
+        <v>0.1431814826550114</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>301781</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>272319</v>
+        <v>272458</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>333851</v>
+        <v>336157</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2130713319345024</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1922700440385988</v>
+        <v>0.1923677230523563</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2357142126312025</v>
+        <v>0.2373425811187002</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>156</v>
@@ -5735,19 +5735,19 @@
         <v>160187</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>138162</v>
+        <v>138553</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>184819</v>
+        <v>182799</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.155365770357598</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1340036368269066</v>
+        <v>0.1343831957920117</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1792564072835348</v>
+        <v>0.1772979834713975</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>436</v>
@@ -5756,19 +5756,19 @@
         <v>461967</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>422662</v>
+        <v>422258</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>501950</v>
+        <v>503786</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1887610732182357</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1727006697882597</v>
+        <v>0.1725359159309167</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2050982922442447</v>
+        <v>0.2058484251190758</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>228692</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>201984</v>
+        <v>202606</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>258556</v>
+        <v>260166</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1614669270736227</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1426098005949523</v>
+        <v>0.1430491176038756</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1825528618963</v>
+        <v>0.183689660949166</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>150</v>
@@ -5806,19 +5806,19 @@
         <v>153318</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>130089</v>
+        <v>129919</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>176483</v>
+        <v>175494</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1487035533879657</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.126174411289372</v>
+        <v>0.1260093853646039</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.171171710059016</v>
+        <v>0.1702126847915678</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>362</v>
@@ -5827,19 +5827,19 @@
         <v>382009</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>343447</v>
+        <v>346048</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>417621</v>
+        <v>417857</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1560899597950494</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1403332029410916</v>
+        <v>0.1413961917460171</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1706411822414942</v>
+        <v>0.1707375962682162</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>305064</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>272317</v>
+        <v>274469</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>336541</v>
+        <v>339524</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2153891836347424</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1922683734452902</v>
+        <v>0.1937881706465502</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2376137362775353</v>
+        <v>0.2397199476293686</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>239</v>
@@ -5877,19 +5877,19 @@
         <v>244151</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>216795</v>
+        <v>216665</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>271769</v>
+        <v>274353</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2368030776784655</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2102700410841209</v>
+        <v>0.2101443889556393</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2635897144461297</v>
+        <v>0.2660967754087222</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>521</v>
@@ -5898,19 +5898,19 @@
         <v>549214</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>507860</v>
+        <v>507074</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>591507</v>
+        <v>589162</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2244104510845332</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2075127965486008</v>
+        <v>0.2071917893105201</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2416912045550558</v>
+        <v>0.2407333256892502</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>297545</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>265086</v>
+        <v>265453</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>329769</v>
+        <v>330778</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2100809350304291</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1871631174877019</v>
+        <v>0.187421947521269</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2328324710298353</v>
+        <v>0.2335443632742928</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>189</v>
@@ -5948,19 +5948,19 @@
         <v>193705</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>169777</v>
+        <v>168332</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>219402</v>
+        <v>219660</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1878758145013136</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1646671852621928</v>
+        <v>0.1632661927528438</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2127989369140283</v>
+        <v>0.2130488196876351</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>470</v>
@@ -5969,19 +5969,19 @@
         <v>491251</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>449574</v>
+        <v>448901</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>532198</v>
+        <v>530589</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2007263388678171</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1836973165335389</v>
+        <v>0.1834220639035058</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2174577254729196</v>
+        <v>0.2168001797888796</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>283256</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>253440</v>
+        <v>250096</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>317661</v>
+        <v>315585</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1999916223267034</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1789405992620638</v>
+        <v>0.1765794232540442</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2242833055492657</v>
+        <v>0.2228176902379368</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>273</v>
@@ -6019,19 +6019,19 @@
         <v>279668</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>252778</v>
+        <v>251567</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>310256</v>
+        <v>306008</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2712517840746572</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2451705771967713</v>
+        <v>0.2439961874005993</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3009191556815767</v>
+        <v>0.2967989748285009</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>535</v>
@@ -6040,19 +6040,19 @@
         <v>562924</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>520700</v>
+        <v>523568</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>606335</v>
+        <v>607343</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2300121770343645</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2127596005558241</v>
+        <v>0.2139311899823237</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2477499675348849</v>
+        <v>0.2481618488352731</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>27137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17106</v>
+        <v>17782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38195</v>
+        <v>38148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2757682104886088</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1738294615994574</v>
+        <v>0.1806989839891176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3881374629453043</v>
+        <v>0.3876619052217292</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -6406,19 +6406,19 @@
         <v>22883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16149</v>
+        <v>15851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30701</v>
+        <v>31194</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.267609303197098</v>
+        <v>0.2676093031970981</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1888513163862516</v>
+        <v>0.1853652272199891</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.359033822697465</v>
+        <v>0.3647944580897451</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -6427,19 +6427,19 @@
         <v>50020</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38377</v>
+        <v>37657</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64004</v>
+        <v>62599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2719747755788733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2086674874934185</v>
+        <v>0.2047499055680361</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3480072398938547</v>
+        <v>0.3403709899149816</v>
       </c>
     </row>
     <row r="5">
@@ -6456,19 +6456,19 @@
         <v>12359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6731</v>
+        <v>6775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21151</v>
+        <v>19790</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1255898384841902</v>
+        <v>0.1255898384841903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06840434692264448</v>
+        <v>0.0688519150467771</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2149421187620368</v>
+        <v>0.2011066093841705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -6477,19 +6477,19 @@
         <v>8149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4427</v>
+        <v>4336</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13829</v>
+        <v>14248</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09530450337352861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05177073526597238</v>
+        <v>0.05070773540538739</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1617274224295171</v>
+        <v>0.166626968366909</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -6498,19 +6498,19 @@
         <v>20508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13659</v>
+        <v>13559</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29629</v>
+        <v>30161</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1115088539409097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07426934883150485</v>
+        <v>0.07372525270286331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1611000065169073</v>
+        <v>0.1639968578330508</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>21801</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13423</v>
+        <v>12959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32241</v>
+        <v>32331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.221548392881617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1364058329932427</v>
+        <v>0.1316916363337363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3276310517834102</v>
+        <v>0.3285511251008724</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -6548,19 +6548,19 @@
         <v>21766</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15299</v>
+        <v>15306</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30084</v>
+        <v>30503</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2545448937341246</v>
+        <v>0.2545448937341247</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1789095447261128</v>
+        <v>0.1789951707552595</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3518227607503598</v>
+        <v>0.3567218386673834</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -6569,19 +6569,19 @@
         <v>43568</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32029</v>
+        <v>33056</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55923</v>
+        <v>56555</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2368899176423233</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1741513429188364</v>
+        <v>0.1797332848060489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3040705983834946</v>
+        <v>0.307503520716898</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>12638</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6778</v>
+        <v>6967</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20177</v>
+        <v>21008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1284317612283834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0688744446006509</v>
+        <v>0.07079833810778099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2050440069984121</v>
+        <v>0.2134801538598245</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -6619,19 +6619,19 @@
         <v>14138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8641</v>
+        <v>9104</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21511</v>
+        <v>21494</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1653322531685793</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1010525415527728</v>
+        <v>0.1064643856988249</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2515644465197027</v>
+        <v>0.2513676475638548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -6640,19 +6640,19 @@
         <v>26776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18989</v>
+        <v>18326</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37573</v>
+        <v>37704</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1455884231821231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.103249157732194</v>
+        <v>0.09964186750478392</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2042947442281312</v>
+        <v>0.2050063618125818</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>24470</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15501</v>
+        <v>14844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38174</v>
+        <v>36177</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2486617969172006</v>
+        <v>0.2486617969172007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1575225652585358</v>
+        <v>0.1508409678852997</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3879245151495318</v>
+        <v>0.3676299420667324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -6690,19 +6690,19 @@
         <v>18574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12572</v>
+        <v>12237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26234</v>
+        <v>26064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2172090465266694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.147023072672428</v>
+        <v>0.1431021602267491</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3067894413488831</v>
+        <v>0.3048108051837274</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -6711,19 +6711,19 @@
         <v>43043</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31264</v>
+        <v>31871</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57184</v>
+        <v>56641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2340380296557706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1699932900209271</v>
+        <v>0.1732899620487823</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3109253941498893</v>
+        <v>0.3079719394029236</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>22937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14835</v>
+        <v>14731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31840</v>
+        <v>32330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3168678637498075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.204938750010195</v>
+        <v>0.2035121484515241</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4398694927813694</v>
+        <v>0.4466385284709706</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -6836,19 +6836,19 @@
         <v>20066</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13687</v>
+        <v>13796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27816</v>
+        <v>27507</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3002031053850962</v>
+        <v>0.300203105385096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2047657708279378</v>
+        <v>0.2064017741249077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4161592372969256</v>
+        <v>0.411525609522852</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -6857,19 +6857,19 @@
         <v>43003</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32364</v>
+        <v>33194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55381</v>
+        <v>55558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3088673282605403</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2324499146687127</v>
+        <v>0.2384138654099905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3977691044222699</v>
+        <v>0.3990459668603533</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>14887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8815</v>
+        <v>8854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23515</v>
+        <v>23413</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2056663295548899</v>
+        <v>0.2056663295548901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1217792903145673</v>
+        <v>0.122315996602816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.324855269594808</v>
+        <v>0.323440078837869</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6907,19 +6907,19 @@
         <v>10026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5585</v>
+        <v>5702</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15692</v>
+        <v>15500</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.149992342327692</v>
+        <v>0.1499923423276919</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0835600427399095</v>
+        <v>0.08531390723794462</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2347732893628894</v>
+        <v>0.2318923864956792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -6928,19 +6928,19 @@
         <v>24913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16888</v>
+        <v>15892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34633</v>
+        <v>35114</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1789379665692369</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1212981235126874</v>
+        <v>0.1141444333804143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2487472301694622</v>
+        <v>0.2522023771536674</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>16904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9204</v>
+        <v>9586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25097</v>
+        <v>25316</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2335278853731458</v>
+        <v>0.2335278853731459</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1271479687666444</v>
+        <v>0.1324280492016717</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3467053451000812</v>
+        <v>0.3497315764430963</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -6978,19 +6978,19 @@
         <v>15731</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10445</v>
+        <v>9915</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23113</v>
+        <v>22841</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2353447317355308</v>
+        <v>0.2353447317355307</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1562592422482994</v>
+        <v>0.1483362862604967</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3457850643923507</v>
+        <v>0.3417261014316884</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -6999,19 +6999,19 @@
         <v>32635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23137</v>
+        <v>23102</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43087</v>
+        <v>43290</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2344001298715471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1661802457482357</v>
+        <v>0.1659293278846407</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3094738448850605</v>
+        <v>0.3109284393264872</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>8016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3332</v>
+        <v>3579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14895</v>
+        <v>15989</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1107358053693586</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04603145903773047</v>
+        <v>0.04944329501253893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2057675717171857</v>
+        <v>0.2208874020172038</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -7049,19 +7049,19 @@
         <v>10093</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5737</v>
+        <v>5382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16570</v>
+        <v>16463</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1509990649331878</v>
+        <v>0.1509990649331877</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08582591803847738</v>
+        <v>0.08052531741257592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2479007576235642</v>
+        <v>0.2463073861080915</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -7070,19 +7070,19 @@
         <v>18109</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11562</v>
+        <v>11286</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26017</v>
+        <v>27182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1300656768264878</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0830424711300289</v>
+        <v>0.08105957157703748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1868643472992497</v>
+        <v>0.1952359669471613</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>9642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4244</v>
+        <v>4116</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18610</v>
+        <v>18586</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1332021159527981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05863360673474034</v>
+        <v>0.05686432012738056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2570965374939635</v>
+        <v>0.2567597368200379</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -7120,19 +7120,19 @@
         <v>10926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6250</v>
+        <v>6615</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16930</v>
+        <v>17296</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1634607556184935</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09350386048519976</v>
+        <v>0.09896748195851847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2532889684555177</v>
+        <v>0.2587649073451317</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -7141,19 +7141,19 @@
         <v>20568</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13190</v>
+        <v>13698</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31439</v>
+        <v>32140</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1477288984721878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09473788960623641</v>
+        <v>0.09838817156524855</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.225812208972833</v>
+        <v>0.2308438674162086</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>21877</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12862</v>
+        <v>13918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31612</v>
+        <v>31608</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3155984745836493</v>
+        <v>0.3155984745836491</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1855484196510626</v>
+        <v>0.2007796294171145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4560364757891584</v>
+        <v>0.4559866645581149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7266,19 +7266,19 @@
         <v>3003</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>806</v>
+        <v>925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6867</v>
+        <v>7523</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1075310511566512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02885004594751656</v>
+        <v>0.03313370592230385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2458678503085359</v>
+        <v>0.2693399703336488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -7287,19 +7287,19 @@
         <v>24880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15777</v>
+        <v>16285</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36047</v>
+        <v>35949</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2558386918046088</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.162228286605428</v>
+        <v>0.1674516881205602</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3706627519820231</v>
+        <v>0.3696643543865382</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>15259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8786</v>
+        <v>7896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24889</v>
+        <v>24812</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2201274013426848</v>
+        <v>0.2201274013426847</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1267469910471069</v>
+        <v>0.1139033598489039</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.359062241169353</v>
+        <v>0.3579447197335354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7340,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7037</v>
+        <v>6589</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07147770218779496</v>
+        <v>0.07147770218779498</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2519384981575275</v>
+        <v>0.2358875280342602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -7358,19 +7358,19 @@
         <v>17255</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9405</v>
+        <v>9307</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26621</v>
+        <v>27055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1774331939297561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09671518645188358</v>
+        <v>0.0957043107756837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2737435087192105</v>
+        <v>0.2782072293957317</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>12021</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5835</v>
+        <v>6239</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19506</v>
+        <v>19596</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1734225448249397</v>
+        <v>0.1734225448249396</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08417304985948534</v>
+        <v>0.09000226215974796</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2814045683156932</v>
+        <v>0.2827017498404007</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -7408,19 +7408,19 @@
         <v>8171</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4478</v>
+        <v>4543</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12753</v>
+        <v>13010</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2925366021759859</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1603110764368859</v>
+        <v>0.1626525134148549</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4565947974689508</v>
+        <v>0.4657920627853959</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -7429,19 +7429,19 @@
         <v>20192</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12958</v>
+        <v>12545</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29222</v>
+        <v>28989</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2076337157809071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1332503809433507</v>
+        <v>0.1289956388316228</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3004855569514245</v>
+        <v>0.2980855967475941</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>10146</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4496</v>
+        <v>5061</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17390</v>
+        <v>17825</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1463735823152131</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06486557563944582</v>
+        <v>0.07301776304574081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2508731514325801</v>
+        <v>0.2571423550735104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -7479,19 +7479,19 @@
         <v>6274</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2607</v>
+        <v>2309</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14464</v>
+        <v>14248</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2246385447350645</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09334223674016377</v>
+        <v>0.08268073879464354</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5178461779696497</v>
+        <v>0.5101166889904405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -7500,19 +7500,19 @@
         <v>16421</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9781</v>
+        <v>9687</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26141</v>
+        <v>27401</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1688523398082672</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1005811739415394</v>
+        <v>0.09960848783743007</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2688013291143211</v>
+        <v>0.2817585325383846</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>10015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4367</v>
+        <v>4203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21193</v>
+        <v>20511</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.144477996933513</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06300548047429597</v>
+        <v>0.06063279509409746</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.305730093052687</v>
+        <v>0.2958945602322874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -7550,19 +7550,19 @@
         <v>8486</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4549</v>
+        <v>4493</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13360</v>
+        <v>14268</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3038160997445034</v>
+        <v>0.3038160997445035</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1628680118770947</v>
+        <v>0.1608754250860762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.478330983231155</v>
+        <v>0.5108443840121639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -7571,19 +7571,19 @@
         <v>18501</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11611</v>
+        <v>11219</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30078</v>
+        <v>30996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1902420586764608</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1193975438469556</v>
+        <v>0.1153684185003106</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3092851668296449</v>
+        <v>0.3187264405367479</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>37819</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27221</v>
+        <v>27582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51037</v>
+        <v>51396</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2826338713573648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2034320338004008</v>
+        <v>0.2061316910918252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3814197374432345</v>
+        <v>0.3841039743095207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -7696,19 +7696,19 @@
         <v>14779</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8870</v>
+        <v>8976</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21708</v>
+        <v>22414</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1278954293551472</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07675716822439078</v>
+        <v>0.07767520758843419</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.187851584125152</v>
+        <v>0.1939633778260565</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -7717,19 +7717,19 @@
         <v>52598</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39267</v>
+        <v>40513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66855</v>
+        <v>68038</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2109264636558185</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1574680957181683</v>
+        <v>0.1624646986713986</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2680975685650513</v>
+        <v>0.2728409053876959</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>23368</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15243</v>
+        <v>14965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35435</v>
+        <v>35040</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1746412729886525</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1139158382825358</v>
+        <v>0.1118380822948047</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2648208113439484</v>
+        <v>0.2618710953799996</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -7767,19 +7767,19 @@
         <v>20097</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13876</v>
+        <v>13385</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29069</v>
+        <v>28101</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.173912421961821</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1200729901319478</v>
+        <v>0.1158316303795424</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.251550571305467</v>
+        <v>0.2431746725157264</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -7788,19 +7788,19 @@
         <v>43466</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>32912</v>
+        <v>31110</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57713</v>
+        <v>57393</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.174303515822053</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1319814683983196</v>
+        <v>0.1247548673579074</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2314375726313158</v>
+        <v>0.2301527845732327</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>38360</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27306</v>
+        <v>28185</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50268</v>
+        <v>50101</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2866802163476642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2040659796380455</v>
+        <v>0.2106393765012026</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3756689001713003</v>
+        <v>0.3744236888348587</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -7838,19 +7838,19 @@
         <v>31232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22167</v>
+        <v>24027</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40161</v>
+        <v>40608</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2702730307751249</v>
+        <v>0.270273030775125</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1918203832159752</v>
+        <v>0.2079179078267431</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3475345111577888</v>
+        <v>0.3514039608046779</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>76</v>
@@ -7859,19 +7859,19 @@
         <v>69593</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>55260</v>
+        <v>55727</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84292</v>
+        <v>84311</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2790769554523003</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2216029031890976</v>
+        <v>0.2234726449316339</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3380234186573969</v>
+        <v>0.3381013715701128</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>18235</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11349</v>
+        <v>10221</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28867</v>
+        <v>29215</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1362767062138704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08481461002316909</v>
+        <v>0.07638643073624879</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2157333168498334</v>
+        <v>0.2183384758135323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7909,19 +7909,19 @@
         <v>19929</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13522</v>
+        <v>13377</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27711</v>
+        <v>27934</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1724556188834795</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1170173844123933</v>
+        <v>0.1157566097644832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2397996844636543</v>
+        <v>0.2417294164308856</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -7930,19 +7930,19 @@
         <v>38164</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27058</v>
+        <v>27200</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50202</v>
+        <v>50730</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1530423916339234</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1085081790567167</v>
+        <v>0.109074640920432</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2013174257396841</v>
+        <v>0.2034351819747661</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>16026</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8787</v>
+        <v>8864</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25841</v>
+        <v>26164</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1197679330924482</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06566506669176779</v>
+        <v>0.0662412992710348</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1931233875490531</v>
+        <v>0.1955344323078618</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -7980,19 +7980,19 @@
         <v>29521</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22432</v>
+        <v>21281</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39734</v>
+        <v>37947</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2554634990244273</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1941150237357209</v>
+        <v>0.1841560355474134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3438428861495185</v>
+        <v>0.3283747335350642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -8001,19 +8001,19 @@
         <v>45547</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>34908</v>
+        <v>34109</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>59810</v>
+        <v>60504</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1826506734359049</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1399868095770426</v>
+        <v>0.1367803735853291</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2398469241883391</v>
+        <v>0.2426304048483057</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>43462</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30858</v>
+        <v>31131</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>56006</v>
+        <v>56748</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4610718206253723</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3273587535872321</v>
+        <v>0.3302524214277053</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5941434796692424</v>
+        <v>0.6020125291145978</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>30</v>
@@ -8126,19 +8126,19 @@
         <v>23564</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17077</v>
+        <v>16238</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32166</v>
+        <v>31791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2744930580116279</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1989232760302131</v>
+        <v>0.1891454266245785</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3746949122142919</v>
+        <v>0.3703230262566752</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>56</v>
@@ -8147,19 +8147,19 @@
         <v>67027</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>52439</v>
+        <v>50498</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>82955</v>
+        <v>82069</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3721418638475806</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2911488068902515</v>
+        <v>0.2803730810401265</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.460579150707612</v>
+        <v>0.455659732653209</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>16867</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8970</v>
+        <v>8824</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26984</v>
+        <v>26977</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1789289751838575</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09515507477283697</v>
+        <v>0.09361469250288372</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2862555513968907</v>
+        <v>0.2861806582533493</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -8197,19 +8197,19 @@
         <v>19993</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13541</v>
+        <v>13748</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27400</v>
+        <v>27250</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2328938090853087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1577319192767768</v>
+        <v>0.1601495833224116</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3191779811442441</v>
+        <v>0.3174269500697616</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -8218,19 +8218,19 @@
         <v>36860</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26016</v>
+        <v>25867</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49733</v>
+        <v>48992</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2046505003946975</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1444433514962228</v>
+        <v>0.1436194717463395</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2761238929110597</v>
+        <v>0.2720111869011766</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>15571</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9069</v>
+        <v>9096</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24422</v>
+        <v>25425</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1651809869153319</v>
+        <v>0.165180986915332</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09621246976170036</v>
+        <v>0.09649217121640223</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2590782796349209</v>
+        <v>0.2697224173791627</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>31</v>
@@ -8268,19 +8268,19 @@
         <v>22687</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16188</v>
+        <v>15715</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30395</v>
+        <v>30340</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2642706320062274</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1885737061950595</v>
+        <v>0.183061430019849</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3540628687647159</v>
+        <v>0.3534225645201262</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>45</v>
@@ -8289,19 +8289,19 @@
         <v>38257</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27282</v>
+        <v>28202</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50299</v>
+        <v>50885</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2124105736679397</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1514732144814966</v>
+        <v>0.156581183241167</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2792640218823714</v>
+        <v>0.2825187408589707</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>9943</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4874</v>
+        <v>5099</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20040</v>
+        <v>19338</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1054771580418317</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05170236121241264</v>
+        <v>0.05409472620818823</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2125991487822989</v>
+        <v>0.2051512265001066</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -8339,19 +8339,19 @@
         <v>11004</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6515</v>
+        <v>6427</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17675</v>
+        <v>17761</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1281841830631062</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07588797430882377</v>
+        <v>0.07486025656118324</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2058851585179129</v>
+        <v>0.2068918974551647</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -8360,19 +8360,19 @@
         <v>20947</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13743</v>
+        <v>13919</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>30955</v>
+        <v>30752</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1163001194839901</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07630497111872883</v>
+        <v>0.07727982705773215</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1718650532144241</v>
+        <v>0.1707380142583462</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>8422</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2994</v>
+        <v>2652</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22535</v>
+        <v>23500</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08934105923360651</v>
+        <v>0.08934105923360652</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0317667083609007</v>
+        <v>0.02813755132061578</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2390627142652313</v>
+        <v>0.2492977858887937</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -8410,19 +8410,19 @@
         <v>8598</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4184</v>
+        <v>4229</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15466</v>
+        <v>16277</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1001583178337297</v>
+        <v>0.1001583178337298</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04874091068024149</v>
+        <v>0.04925704484110412</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1801605489491889</v>
+        <v>0.1896054635187519</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -8431,19 +8431,19 @@
         <v>17020</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9027</v>
+        <v>8928</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>29742</v>
+        <v>31059</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09449694260579203</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0501175577723234</v>
+        <v>0.04956862605344516</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.165130422065291</v>
+        <v>0.1724426183308853</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>153231</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>129912</v>
+        <v>130380</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>179207</v>
+        <v>180212</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3272913708896759</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2774828814830633</v>
+        <v>0.2784817082142301</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3827729938068977</v>
+        <v>0.3849206118113686</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>103</v>
@@ -8556,19 +8556,19 @@
         <v>84297</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>70224</v>
+        <v>70078</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>99641</v>
+        <v>100259</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2208517543769608</v>
+        <v>0.2208517543769607</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1839829194000043</v>
+        <v>0.1836006290647243</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2610516829030493</v>
+        <v>0.262671239729883</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>216</v>
@@ -8577,19 +8577,19 @@
         <v>237528</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>210962</v>
+        <v>209710</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>266704</v>
+        <v>266538</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2794877392985866</v>
+        <v>0.2794877392985865</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2482284487155599</v>
+        <v>0.2467552693373199</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3138182129152789</v>
+        <v>0.3136229850762887</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>82740</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>67531</v>
+        <v>65856</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>105286</v>
+        <v>103320</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1767261063916536</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1442407327870562</v>
+        <v>0.1406639379940567</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2248839082442434</v>
+        <v>0.2206847302644244</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>80</v>
@@ -8627,19 +8627,19 @@
         <v>60262</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>48636</v>
+        <v>47739</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>73078</v>
+        <v>74059</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1578827577985303</v>
+        <v>0.1578827577985302</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1274240458712214</v>
+        <v>0.1250735229158117</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1914603969617791</v>
+        <v>0.194030147464506</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>152</v>
@@ -8648,19 +8648,19 @@
         <v>143002</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>123274</v>
+        <v>121025</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>167176</v>
+        <v>168906</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1682632753180324</v>
+        <v>0.1682632753180323</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1450501931035499</v>
+        <v>0.1424047483433792</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1967083603957727</v>
+        <v>0.1987433947809641</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>104657</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>85218</v>
+        <v>85426</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>125954</v>
+        <v>126366</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2235409769024058</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1820207832750776</v>
+        <v>0.1824639744432334</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2690290956346248</v>
+        <v>0.2699090877578579</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>133</v>
@@ -8698,19 +8698,19 @@
         <v>99587</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>83780</v>
+        <v>83997</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>114713</v>
+        <v>115229</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2609119916831783</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2194992200782739</v>
+        <v>0.2200675062648079</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.300539792336783</v>
+        <v>0.3018911358324765</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>227</v>
@@ -8719,19 +8719,19 @@
         <v>204245</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>178993</v>
+        <v>178983</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>230067</v>
+        <v>228906</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.240324861336561</v>
+        <v>0.2403248613365609</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2106128921162627</v>
+        <v>0.2106011122492451</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2707086422248346</v>
+        <v>0.2693428607101589</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>58978</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>45365</v>
+        <v>43640</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>77329</v>
+        <v>76869</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1259725978019089</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0968964053506482</v>
+        <v>0.09321282609807799</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1651689893493185</v>
+        <v>0.1641867646068606</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>79</v>
@@ -8769,19 +8769,19 @@
         <v>61438</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>49190</v>
+        <v>49234</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>76525</v>
+        <v>75267</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1609636679835307</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.12887498316152</v>
+        <v>0.1289888918271253</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2004900143618467</v>
+        <v>0.1971942059760931</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>132</v>
@@ -8790,19 +8790,19 @@
         <v>120416</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>103039</v>
+        <v>99538</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>144641</v>
+        <v>139728</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1416876133453967</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1212410873673409</v>
+        <v>0.11712193673095</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1701924570232472</v>
+        <v>0.164411637240317</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>68574</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>51598</v>
+        <v>50885</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>90173</v>
+        <v>92867</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1464689480143558</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1102093649955614</v>
+        <v>0.1086875081435404</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1926025884555565</v>
+        <v>0.1983584902047919</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>92</v>
@@ -8840,19 +8840,19 @@
         <v>76105</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>62715</v>
+        <v>61383</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>91545</v>
+        <v>90421</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1993898281578</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1643096488358284</v>
+        <v>0.1608200326075552</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2398421446109504</v>
+        <v>0.236897555850502</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>140</v>
@@ -8861,19 +8861,19 @@
         <v>144679</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>123085</v>
+        <v>121681</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>171477</v>
+        <v>170749</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1702365107014235</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.144828166783454</v>
+        <v>0.1431756572806912</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2017688492681858</v>
+        <v>0.2009115728204085</v>
       </c>
     </row>
     <row r="39">
